--- a/hoshino/modules/botmanage/help.xlsx
+++ b/hoshino/modules/botmanage/help.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500"/>
+    <workbookView windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -156,6 +155,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>天气</t>
     </r>
     <r>
@@ -198,6 +205,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我问</t>
     </r>
     <r>
@@ -264,6 +279,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>订阅动态</t>
     </r>
     <r>
@@ -306,6 +329,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>rua＠</t>
     </r>
     <r>
@@ -357,6 +388,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">戳一戳 | </t>
     </r>
     <r>
@@ -413,6 +451,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>点歌</t>
     </r>
     <r>
@@ -437,6 +483,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>＠bot</t>
     </r>
     <r>
@@ -473,6 +527,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">涩图 | 来x张涩图 | 搜涩图 </t>
     </r>
     <r>
@@ -500,6 +562,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">邦邦天井 </t>
     </r>
     <r>
@@ -710,6 +780,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>原神信息</t>
     </r>
     <r>
@@ -728,6 +806,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>原神猜语音</t>
     </r>
     <r>
@@ -755,6 +841,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>原神语音</t>
     </r>
     <r>
@@ -779,6 +873,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>来点</t>
     </r>
     <r>
@@ -827,6 +929,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>查看原神武器</t>
     </r>
     <r>
@@ -878,6 +988,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">今日素材 | 鱼类图鉴 | 鱼类地图 | </t>
     </r>
     <r>
@@ -913,6 +1031,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>原神副本</t>
     </r>
     <r>
@@ -955,6 +1081,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">查看圣遗物仓库 </t>
     </r>
     <r>
@@ -1012,6 +1146,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>圣遗物洗点</t>
     </r>
     <r>
@@ -1076,14 +1218,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,9 +1288,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1166,10 +1323,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1190,54 +1348,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1252,23 +1363,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1283,7 +1418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,7 +1475,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,109 +1511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,31 +1523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,13 +1541,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,6 +1740,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1620,6 +1779,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1631,6 +1799,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1652,48 +1829,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1707,152 +1842,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1877,66 +2012,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1955,19 +2048,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2023,6 +2104,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F2EFCB"/>
+      <color rgb="00E48787"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2320,8 +2407,8 @@
   <sheetPr/>
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2347,11 +2434,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
@@ -2370,11 +2457,11 @@
       <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:11">
       <c r="A7" s="2"/>
@@ -2385,9 +2472,9 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:11">
       <c r="A8" s="6" t="s">
@@ -2399,514 +2486,514 @@
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:11">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="35" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:11">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="9" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="35" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:11">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="35" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:11">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="35" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:11">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="35" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:11">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:11">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:11">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:11">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:11">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:11">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:11">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:11">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="9" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:11">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="15" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:11">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:11">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="9" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:11">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="15" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:11">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="15" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:11">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="9" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:11">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="15" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:11">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="15" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:11">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="9" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:11">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="15" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
@@ -2922,11 +3009,11 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:11">
       <c r="A37" s="2" t="s">
@@ -2945,11 +3032,11 @@
       <c r="H37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="I37" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:11">
       <c r="A38" s="2"/>
@@ -2960,9 +3047,9 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="33"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:11">
       <c r="A39" s="6" t="s">
@@ -2974,209 +3061,209 @@
       <c r="C39" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:11">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="9" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:11">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="9" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:11">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="35" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:11">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="9" t="s">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:11">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" ht="18.75" spans="1:11">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="35"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" ht="18.75" spans="1:11">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="15" t="s">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
     </row>
     <row r="47" ht="18.75" spans="1:11">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="14" t="s">
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="35" t="s">
+      <c r="I47" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
     </row>
     <row r="48" ht="18.75" spans="1:11">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="35" t="s">
+      <c r="I48" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
     </row>
     <row r="49" ht="20" customHeight="1"/>
     <row r="50" ht="25" customHeight="1" spans="1:11">
@@ -3190,11 +3277,11 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="26" t="s">
+      <c r="I50" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:11">
       <c r="A51" s="2" t="s">
@@ -3213,11 +3300,11 @@
       <c r="H51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="28" t="s">
+      <c r="I51" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="29"/>
-      <c r="K51" s="30"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="16"/>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:11">
       <c r="A52" s="2"/>
@@ -3228,9 +3315,9 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="19"/>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:11">
       <c r="A53" s="6" t="s">
@@ -3242,56 +3329,56 @@
       <c r="C53" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:11">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:11">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="9" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I55" s="35" t="s">
+      <c r="I55" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56" ht="20" customHeight="1"/>
     <row r="57" ht="25" customHeight="1" spans="1:11">
@@ -3305,11 +3392,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="26" t="s">
+      <c r="I57" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:11">
       <c r="A58" s="2" t="s">
@@ -3328,11 +3415,11 @@
       <c r="H58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="28" t="s">
+      <c r="I58" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J58" s="29"/>
-      <c r="K58" s="30"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="16"/>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:11">
       <c r="A59" s="2"/>
@@ -3343,9 +3430,9 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="33"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="19"/>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:11">
       <c r="A60" s="6" t="s">
@@ -3357,313 +3444,313 @@
       <c r="C60" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9" t="s">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I60" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:11">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:11">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="9" t="s">
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:11">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9" t="s">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="I63" s="35" t="s">
+      <c r="I63" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:11">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="9" t="s">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:11">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="14" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:11">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:11">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:11">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:11">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:11">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:11">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:11">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:11">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:11">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:11">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
     </row>
     <row r="76" ht="20" customHeight="1"/>
     <row r="77" ht="20" customHeight="1"/>
@@ -3852,25 +3939,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/hoshino/modules/botmanage/help.xlsx
+++ b/hoshino/modules/botmanage/help.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="211">
   <si>
     <t>帕瑟芬妮BOT功能表</t>
   </si>
@@ -1211,6 +1211,343 @@
   </si>
   <si>
     <t>转换全部0级圣遗物</t>
+  </si>
+  <si>
+    <t>演示视频</t>
+  </si>
+  <si>
+    <t>命令示例/命令详情
+*除非说明不需要＠bot</t>
+  </si>
+  <si>
+    <t>命令说明</t>
+  </si>
+  <si>
+    <t>开发者QQ：798222964
+测试区：90358048</t>
+  </si>
+  <si>
+    <t>Genshin_impact</t>
+  </si>
+  <si>
+    <t>https://b23.tv/1McXWWu</t>
+  </si>
+  <si>
+    <t>https://b23.tv/7Sjb5Tu</t>
+  </si>
+  <si>
+    <t>表情包插件</t>
+  </si>
+  <si>
+    <t>yiyunsentence</t>
+  </si>
+  <si>
+    <t>网抑云热评</t>
+  </si>
+  <si>
+    <t>猜群友|猜原神|原神猜语音|猜干员|猜pcr</t>
+  </si>
+  <si>
+    <t>https://b23.tv/TYx7I3J</t>
+  </si>
+  <si>
+    <t>天气插件</t>
+  </si>
+  <si>
+    <r>
+      <t>天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 苏州 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 苏州</t>
+    </r>
+  </si>
+  <si>
+    <t>你问我答</t>
+  </si>
+  <si>
+    <r>
+      <t>我问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>群友</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">变态 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不要回答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>群友</t>
+    </r>
+  </si>
+  <si>
+    <t>问答部分可以使用图片</t>
+  </si>
+  <si>
+    <t>https://b23.tv/VYncaJ5</t>
+  </si>
+  <si>
+    <r>
+      <t>订阅动态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 54225838|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">取消订阅动态 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>54225838</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rua＠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">某群友 ｜ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搓＠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>某群友</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">戳一戳 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传卖萌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100.jpg</t>
+    </r>
+  </si>
+  <si>
+    <t>上传卖萌不能是动图</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">点歌 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新宝岛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>＠bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　掀裙子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>搜磁力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xxx | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聚合搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xxx</t>
+    </r>
+  </si>
+  <si>
+    <t>涩图 | 来x张涩图 | 搜涩图 刻晴</t>
+  </si>
+  <si>
+    <r>
+      <t>邦邦天井</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 115 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邦邦十连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 115</t>
+    </r>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>崩坏三插件</t>
+  </si>
+  <si>
+    <t>bh#UID</t>
+  </si>
+  <si>
+    <t>速度较慢</t>
   </si>
 </sst>
 </file>
@@ -1218,20 +1555,62 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1288,22 +1667,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1317,17 +1681,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1348,7 +1712,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1357,9 +1721,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1378,16 +1742,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1395,7 +1751,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1409,27 +1796,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1469,31 +1878,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,37 +1914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,61 +1932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,13 +1950,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,19 +1992,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,6 +2149,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1764,50 +2221,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,17 +2246,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1845,10 +2254,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1857,198 +2266,255 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2424,1333 +2890,1333 @@
     <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="20" customHeight="1"/>
     <row r="5" ht="25" customHeight="1" spans="1:11">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="13" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:11">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:11">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:11">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:11">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:11">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="8" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:11">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:11">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:11">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:11">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:11">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:11">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:11">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:11">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:11">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="6" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:11">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:11">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:11">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="6" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:11">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:11">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:11">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="6" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:11">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:11">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:11">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="6" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:11">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
     </row>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
     <row r="35" ht="20" customHeight="1"/>
     <row r="36" ht="25" customHeight="1" spans="1:11">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="13" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:11">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="16"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:11">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="19"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:11">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:11">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="6" t="s">
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:11">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="6" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:11">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="8" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:11">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="6" t="s">
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:11">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
     </row>
     <row r="45" ht="18.75" spans="1:11">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
     </row>
     <row r="46" ht="18.75" spans="1:11">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="6" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
     </row>
     <row r="47" ht="18.75" spans="1:11">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10" t="s">
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
     </row>
     <row r="48" ht="18.75" spans="1:11">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
     </row>
     <row r="49" ht="20" customHeight="1"/>
     <row r="50" ht="25" customHeight="1" spans="1:11">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="13" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:11">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5" t="s">
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="16"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="35"/>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:11">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="19"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:11">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:11">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:11">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="6" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
     </row>
     <row r="56" ht="20" customHeight="1"/>
     <row r="57" ht="25" customHeight="1" spans="1:11">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="13" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:11">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="5" t="s">
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="14" t="s">
+      <c r="I58" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J58" s="15"/>
-      <c r="K58" s="16"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="35"/>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:11">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="19"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:11">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="6" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="I60" s="20" t="s">
+      <c r="I60" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:11">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:11">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="6" t="s">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:11">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="6" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:11">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="6" t="s">
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:11">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10" t="s">
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:11">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:11">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:11">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:11">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:11">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:11">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:11">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:11">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:11">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:11">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" ht="20" customHeight="1"/>
     <row r="77" ht="20" customHeight="1"/>
@@ -3937,14 +4403,456 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="36" customHeight="1" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="2:6">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="2:6">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" ht="18.75" spans="2:6">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" ht="18.75" spans="2:6">
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" ht="18.75" spans="2:6">
+      <c r="B7" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" spans="2:6">
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" ht="18.75" spans="2:6">
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="2:6">
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="2:6">
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" spans="2:6">
+      <c r="B12" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="2:6">
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" spans="2:6">
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" ht="18.75" spans="2:6">
+      <c r="B15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="2:6">
+      <c r="B16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" spans="2:6">
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" spans="2:6">
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" spans="2:6">
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="2:6">
+      <c r="B20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" ht="18.75" spans="2:6">
+      <c r="B21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" spans="2:6">
+      <c r="B22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" spans="2:6">
+      <c r="B23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" spans="2:6">
+      <c r="B24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" ht="18.75" spans="2:6">
+      <c r="B25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" ht="18.75" spans="2:6">
+      <c r="B26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" ht="18.75" spans="2:6">
+      <c r="B27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" ht="18.75" spans="2:6">
+      <c r="B28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" ht="18.75" spans="2:6">
+      <c r="B29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" ht="18.75" spans="2:6">
+      <c r="B30" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" display="https://b23.tv/1McXWWu"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
